--- a/biology/Histoire de la zoologie et de la botanique/Vinzenz_Maria_Gredler/Vinzenz_Maria_Gredler.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Vinzenz_Maria_Gredler/Vinzenz_Maria_Gredler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vinzenz Maria Gredler était un frère dominicain et un naturaliste autrichien, né le 30 septembre 1823 à Telfs (Innsbruck) et mort le 4 mai 1912 à Bozen.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gredler fait d’abord des études classiques (de 1835 à 1841) puis philosophiques et théologiques (de 1842 à 1848). Il enseigne les sciences naturelles au Gymnasium d’Hall de 1848 à 1849. Sans autre diplôme, il soutient et obtient un diplôme d’histoire naturelle. Il est enseignant et directeur du Gymnasium des pères franciscains à Bolzano de 1849 à 1901.
 Il fait paraître 338 publications sur des sujets variés : géologie, minéralogie, botanique, zoologie (mammifères, oiseaux, reptiles, amphibiens, mollusques, insectes), art, anthropologie, histoire, etc. Il fait de nombreuses excursions naturalistes dans le Tyrol et constitue une riche collection ; il reçoit l’aide de séminaristes et de ses élèves. Celle-ci est aujourd’hui conservée au muséum du gymnasium de Bolzano (ou Museo Tirolese di Scienze Naturali del Ginnasio dei Padri Francescani).
@@ -543,7 +557,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cesare Conci et Roberto Poggi (1996), Iconography of Italian Entomologists, with essential biographical data. Memorie della Società entomologica Italiana, 75 : 159-382.
 Pietro Lorenzi &amp; Silvio Bruno (2002). Uomini, storie, serpenti contributi alla storiografia erpetologica del Trentino-Alto Adige e Dintorni. Annali del Museo Civico di Rovereto, 17 : 173-274.</t>
